--- a/dist/整合結果/自由時報/excel_by_week/2025_W24.xlsx
+++ b/dist/整合結果/自由時報/excel_by_week/2025_W24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C284"/>
+  <dimension ref="A1:C318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3416,12 +3416,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>搶救壽險業匯損 金管會祭出3大寬容措施</t>
+          <t>沒念大學年薪也能近300萬！5個「新領工作」不看學歷只看實力</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073456</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073627</t>
         </is>
       </c>
     </row>
@@ -3450,12 +3450,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>MACO！馬斯克向川普認錯後獲網封新綽號</t>
+          <t>要交出商業機密才能換稀土！中國出奧步</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073052</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073012</t>
         </is>
       </c>
     </row>
@@ -3467,12 +3467,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>要交出商業機密才能換稀土！中國出奧步</t>
+          <t>黃仁勳：美國技術領先中國一世代 華為將主導當地市場</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073012</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073453</t>
         </is>
       </c>
     </row>
@@ -3484,12 +3484,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>黃仁勳：美國技術領先中國一世代 華為將主導當地市場</t>
+          <t>搶救壽險業匯損 金管會祭出3大寬容措施</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073453</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073456</t>
         </is>
       </c>
     </row>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>美︰有談判誠意 對等關稅暫停可延長</t>
+          <t>盤勢分析》台積除息失利 上檔賣壓待消化</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711323</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711333</t>
         </is>
       </c>
     </row>
@@ -3637,12 +3637,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>他出售山坡地險被追繳贈與稅 這樣做終於解套</t>
+          <t>MACO！馬斯克向川普認錯後獲網封新綽號</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073199</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073052</t>
         </is>
       </c>
     </row>
@@ -3654,12 +3654,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>盤勢分析》台積除息失利 上檔賣壓待消化</t>
+          <t>熱門股》特斯拉推自駕車 亞光股漲</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711333</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711331</t>
         </is>
       </c>
     </row>
@@ -3671,12 +3671,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>熱門股》外資買翻天 神達爆量大漲</t>
+          <t>政院：盤整最終方案 爭取最大利益</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711330</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711324</t>
         </is>
       </c>
     </row>
@@ -3688,12 +3688,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>政院：盤整最終方案 爭取最大利益</t>
+          <t>布局國際 櫃買與菲證交所簽署MOU</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711324</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711335</t>
         </is>
       </c>
     </row>
@@ -3705,12 +3705,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>布局國際 櫃買與菲證交所簽署MOU</t>
+          <t>壽險匯損暴增 金管會祭三箭降衝擊</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711335</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711326</t>
         </is>
       </c>
     </row>
@@ -3722,12 +3722,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>壽險匯損暴增 金管會祭三箭降衝擊</t>
+          <t>啟動「四大轉型、三大發展方向」 南亞吳嘉昭：看好下半年</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711326</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711329</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3739,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>啟動「四大轉型、三大發展方向」 南亞吳嘉昭：看好下半年</t>
+          <t>台達電機器人獲歐洲新單 打入義大利滑軌供應鏈</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711329</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711328</t>
         </is>
       </c>
     </row>
@@ -3756,12 +3756,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>台達電機器人獲歐洲新單 打入義大利滑軌供應鏈</t>
+          <t>中稀土出口暗留一手 藉機竊智財</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711328</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711327?utm_campaign=STARK_business_CTR&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
         </is>
       </c>
     </row>
@@ -3773,12 +3773,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>中稀土出口暗留一手 藉機竊智財</t>
+          <t>Fed降息預期增 美元大跌、台幣勁揚2.6角</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711327?utm_campaign=STARK_business_CTR&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711325</t>
         </is>
       </c>
     </row>
@@ -3790,12 +3790,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Fed降息預期增 美元大跌、台幣勁揚2.6角</t>
+          <t>美國通膨數據佳且公債需求穩健 華爾街震盪收高</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711325</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073608</t>
         </is>
       </c>
     </row>
@@ -3807,12 +3807,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>美國通膨數據佳且公債需求穩健 華爾街震盪收高</t>
+          <t>CNN：美國管制晶片出口 輝達財測將排除中國市場</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073608</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073605</t>
         </is>
       </c>
     </row>
@@ -3824,12 +3824,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>CNN：美國管制晶片出口 輝達財測將排除中國市場</t>
+          <t>貿易及地緣政治局勢雙重打擊 歐股多收黑</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073605</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073587</t>
         </is>
       </c>
     </row>
@@ -3858,12 +3858,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>熱門股》特斯拉推自駕車 亞光股漲</t>
+          <t>熱門股》外資買翻天 神達爆量大漲</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711331</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711330</t>
         </is>
       </c>
     </row>
@@ -3875,12 +3875,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>關稅燒到冰箱、洗衣機！美商務部宣佈6/23起進口家電加徵50％關稅</t>
+          <t>他出售山坡地險被追繳贈與稅 這樣做終於解套</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073640</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073199</t>
         </is>
       </c>
     </row>
@@ -3892,12 +3892,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>貿易及地緣政治局勢雙重打擊 歐股多收黑</t>
+          <t>美︰有談判誠意 對等關稅暫停可延長</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073587</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711323</t>
         </is>
       </c>
     </row>
@@ -3909,12 +3909,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>印航波音787黑盒子找到了！起飛30秒就墜毀、可能原因曝光</t>
+          <t>美出口限制影響大 輝達未來財測將排除中國市場</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073626?utm_campaign=STARK_business_CTR&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073639</t>
         </is>
       </c>
     </row>
@@ -3926,12 +3926,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>美出口限制影響大 輝達未來財測將排除中國市場</t>
+          <t>駁斥CBO 2.4兆美元赤字！貝森特：減稅法案加關稅收入 10年內財政盈餘飆「此數」</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073639</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073644</t>
         </is>
       </c>
     </row>
@@ -3943,12 +3943,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>波音股價下跌近5％ 執行長重振公司道路艱難</t>
+          <t>關稅燒到冰箱、洗衣機！美商務部宣佈6/23起進口家電加徵50％關稅</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073918</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073640</t>
         </is>
       </c>
     </row>
@@ -3960,12 +3960,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>不能只依賴中國 川普考慮動用國防生產法資助美稀土業</t>
+          <t>波音股價下跌近5％ 執行長重振公司道路艱難</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073692</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073918</t>
         </is>
       </c>
     </row>
@@ -3977,12 +3977,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>廣達拍板衝刺量子電腦 林百里：十年一劍剛剛好</t>
+          <t>不能只依賴中國 川普考慮動用國防生產法資助美稀土業</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073911</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073692</t>
         </is>
       </c>
     </row>
@@ -3994,12 +3994,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>焦點股》富世達：投信本月大掃貨 股價衝上800元大關</t>
+          <t>廣達拍板衝刺量子電腦 林百里：十年一劍剛剛好</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073907</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073911</t>
         </is>
       </c>
     </row>
@@ -4011,12 +4011,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>玉山金舉行股東會 通過配發股利1.3元</t>
+          <t>焦點股》富世達：投信本月大掃貨 股價衝上800元大關</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073892</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073907</t>
         </is>
       </c>
     </row>
@@ -4028,12 +4028,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>中國騰訊考慮買下南韓Nexon！楓之谷、爆爆王等IP恐將易主</t>
+          <t>玉山金舉行股東會 通過配發股利1.3元</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073634</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073892</t>
         </is>
       </c>
     </row>
@@ -4045,12 +4045,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>預約突破 200 萬！《文明帝國：同盟時代》里程碑獎勵全數解鎖</t>
+          <t>中國騰訊考慮買下南韓Nexon！楓之谷、爆爆王等IP恐將易主</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>https://market.ltn.com.tw/article/17473</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073634</t>
         </is>
       </c>
     </row>
@@ -4062,12 +4062,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>中國人獲日本永居的「捷徑」被盯上 ! 日本準備收緊「1簽證」計劃</t>
+          <t>預約突破 200 萬！《文明帝國：同盟時代》里程碑獎勵全數解鎖</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073653</t>
+          <t>https://market.ltn.com.tw/article/17473</t>
         </is>
       </c>
     </row>
@@ -4130,12 +4130,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>駁斥CBO 2.4兆美元赤字！貝森特：減稅法案加關稅收入 10年內財政盈餘飆「此數」</t>
+          <t>急起直追！蘇姿丰：AMD新晶片超越輝達</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073644</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073661</t>
         </is>
       </c>
     </row>
@@ -4147,12 +4147,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>夏日戲水注意！台電提醒：遠離水力電廠放流區域 避免放水發生意外</t>
+          <t>中國人獲日本永居的「捷徑」被盯上 ! 日本準備收緊「1簽證」計劃</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073765</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073653</t>
         </is>
       </c>
     </row>
@@ -4164,12 +4164,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>沒念大學年薪也能近300萬！5個「新領工作」不看學歷只看實力</t>
+          <t>黃金上漲觸一週高點 但專家說有「阻礙」？</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073627</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073646</t>
         </is>
       </c>
     </row>
@@ -4317,12 +4317,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>黃金上漲觸一週高點 但專家說有「阻礙」？</t>
+          <t>夏日戲水注意！台電提醒：遠離水力電廠放流區域 避免放水發生意外</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073646</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073765</t>
         </is>
       </c>
     </row>
@@ -4334,12 +4334,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>急起直追！蘇姿丰：AMD新晶片超越輝達</t>
+          <t>印航波音787黑盒子找到了！起飛30秒就墜毀、可能原因曝光</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073661</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073626?utm_campaign=STARK_business_CTR&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
         </is>
       </c>
     </row>
@@ -4351,12 +4351,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>誠品生活台南正式開幕 估創年消費人群可達400萬人次</t>
+          <t>昔日中國汽車銷量一哥倒了！哪吒汽車5年燒光逾750億</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075035</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075034</t>
         </is>
       </c>
     </row>
@@ -4368,12 +4368,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>英特爾美晶圓廠7月中旬首波裁員 中層管理皮皮挫 不排除第2輪</t>
+          <t>誠品生活台南正式開幕 估創年消費人群可達400萬人次</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075022</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075035</t>
         </is>
       </c>
     </row>
@@ -4385,12 +4385,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>美債將迎「動盪之夏」！投資人得小心這3大變數</t>
+          <t>英特爾美晶圓廠7月中旬首波裁員 中層管理皮皮挫 不排除第2輪</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074802</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075022</t>
         </is>
       </c>
     </row>
@@ -4402,12 +4402,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>臻鼎董事長沈慶芳 獲頒中央大學名譽博士</t>
+          <t>美債將迎「動盪之夏」！投資人得小心這3大變數</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074896</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074802</t>
         </is>
       </c>
     </row>
@@ -4419,12 +4419,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>印度53歲億萬富翁 吞下一隻蜜蜂後猝逝</t>
+          <t>國際財經</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074790</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074108</t>
         </is>
       </c>
     </row>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>選邊站？越南正式加入金磚國家 成為第10個夥伴國</t>
+          <t>高雄港站容積調配案過關 留住哈瑪星5.7公頃鐵道空間</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074864</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074845</t>
         </is>
       </c>
     </row>
@@ -4453,12 +4453,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>合法農舍旁鋪水泥？小心變更使用要補稅！</t>
+          <t>選邊站？越南正式加入金磚國家 成為第10個夥伴國</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074810</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074864</t>
         </is>
       </c>
     </row>
@@ -4470,12 +4470,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>國際財經</t>
+          <t>合法農舍旁鋪水泥？小心變更使用要補稅！</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074108</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074810</t>
         </is>
       </c>
     </row>
@@ -4487,12 +4487,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>遭非裔企業家求償2954億元 美國麥當勞完成和解</t>
+          <t>新竹老農賣地恐繳千萬增值稅 竹市稅務局出手成功節稅90萬元</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074786</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075064</t>
         </is>
       </c>
     </row>
@@ -4504,12 +4504,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>高雄港站容積調配案過關 留住哈瑪星5.7公頃鐵道空間</t>
+          <t>印度53歲億萬富翁 吞下一隻蜜蜂後猝逝</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074845</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074790</t>
         </is>
       </c>
     </row>
@@ -4521,12 +4521,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>昔日中國汽車銷量一哥倒了！哪吒汽車5年燒光逾750億</t>
+          <t>臻鼎董事長沈慶芳 獲頒中央大學名譽博士</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075034</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074896</t>
         </is>
       </c>
     </row>
@@ -4538,12 +4538,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>馬斯克好慘！瑞典退休基金砍光特斯拉持股 套現逾400億</t>
+          <t>軍情預測神器？以色列開打前夕、五角大廈披薩訂單激增</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075089</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075060</t>
         </is>
       </c>
     </row>
@@ -4555,12 +4555,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>軍情預測神器？以色列開打前夕、五角大廈披薩訂單激增</t>
+          <t>川普關稅打出一手爛牌 迄今僅這國降低貿易壁壘</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075060</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075385</t>
         </is>
       </c>
     </row>
@@ -4572,12 +4572,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>蘇姿丰救了三星？HBM3E拿到AMD訂單</t>
+          <t>以伊衝突危及全球四分之一石油航道 船東拒通過危險海峽</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075093</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075129</t>
         </is>
       </c>
     </row>
@@ -4589,12 +4589,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>以伊衝突危及全球四分之一石油航道 船東拒通過危險海峽</t>
+          <t>Costco最新政策讓會員樂翻！但員工不開心：「絕對是場惡夢」</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075129</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075109</t>
         </is>
       </c>
     </row>
@@ -4606,12 +4606,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Costco最新政策讓會員樂翻！但員工不開心：「絕對是場惡夢」</t>
+          <t>馬斯克好慘！瑞典退休基金砍光特斯拉持股 套現逾400億</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075109</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075089</t>
         </is>
       </c>
     </row>
@@ -4725,12 +4725,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>以伊衝突震撼市場！國際油價一度暴漲14％、創俄烏戰爭以來紀錄</t>
+          <t>哈米尼逃了？多架伊朗班機飛離德黑蘭</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074771</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075364</t>
         </is>
       </c>
     </row>
@@ -4742,12 +4742,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>哈米尼逃了？多架伊朗班機飛離德黑蘭</t>
+          <t>遭非裔企業家求償2954億元 美國麥當勞完成和解</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075364</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074786</t>
         </is>
       </c>
     </row>
@@ -4759,12 +4759,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>新竹老農賣地恐繳千萬增值稅 竹市稅務局出手成功節稅90萬元</t>
+          <t>美日聯手抗中！川普拍板新日鐵收購美鋼</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075064</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075378</t>
         </is>
       </c>
     </row>
@@ -4776,12 +4776,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>以伊衝突嚇壞市場！黃金本週大漲逾4％ 「這時」上看4000美元</t>
+          <t>蘇姿丰救了三星？HBM3E拿到AMD訂單</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074770</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075093</t>
         </is>
       </c>
     </row>
@@ -4793,12 +4793,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>股東會速報》今年票價下降正常 星宇：爆發式獲利難</t>
+          <t>以伊衝突震撼市場！國際油價一度暴漲14％、創俄烏戰爭以來紀錄</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711490</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074771</t>
         </is>
       </c>
     </row>
@@ -4810,12 +4810,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>華爾街日報：中國工程師赴第三國 租用輝達伺服器訓練AI模型</t>
+          <t>金控交棒》林知延接華南金副董 蔡宗翰掌國泰金副董</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074625</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711585</t>
         </is>
       </c>
     </row>
@@ -4827,12 +4827,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>川普關稅打出一手爛牌 迄今僅這國降低貿易壁壘</t>
+          <t>3C達人踢爆韓國中小企業 遭華為趕盡殺絕血淚史</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075385</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074484</t>
         </is>
       </c>
     </row>
@@ -4844,12 +4844,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>中東局勢緊張引發憂慮 歐股走低</t>
+          <t>以伊衝突嚇壞市場！黃金本週大漲逾4％ 「這時」上看4000美元</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074734</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074770</t>
         </is>
       </c>
     </row>
@@ -4861,12 +4861,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>AI推升電力需求 華城、士電營運強</t>
+          <t>中東局勢緊張引發憂慮 歐股走低</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711487</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074734</t>
         </is>
       </c>
     </row>
@@ -4878,12 +4878,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>下半年關稅衝擊顯現 台綜院︰今年經濟成長拚保三</t>
+          <t>AI推升電力需求 華城、士電營運強</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711584</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711487</t>
         </is>
       </c>
     </row>
@@ -4895,12 +4895,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>下週油價／中油啟動平穩機制 汽油估持平或降0.1元</t>
+          <t>下半年關稅衝擊顯現 台綜院︰今年經濟成長拚保三</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711491</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711584</t>
         </is>
       </c>
     </row>
@@ -4912,12 +4912,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>卓揆：3防線堵洗產地 有利台美關稅談判 視察台北關 強調台美經濟安全立場一致</t>
+          <t>下週油價／中油啟動平穩機制 汽油估持平或降0.1元</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711466</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711491</t>
         </is>
       </c>
     </row>
@@ -5014,12 +5014,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>3C達人踢爆韓國中小企業 遭華為趕盡殺絕血淚史</t>
+          <t>廣達AI伺服器搶得先機 力拚轉型智慧車載、醫療</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074484</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711486</t>
         </is>
       </c>
     </row>
@@ -5031,12 +5031,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>廣達AI伺服器搶得先機 力拚轉型智慧車載、醫療</t>
+          <t>我對外資產、負債雙創高 成全球第6大淨債權國</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711486</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711583</t>
         </is>
       </c>
     </row>
@@ -5048,12 +5048,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>盤勢分析》中東戰火又起 拉回布局</t>
+          <t>卓揆：3防線堵洗產地 有利台美關稅談判 視察台北關 強調台美經濟安全立場一致</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711489</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711466</t>
         </is>
       </c>
     </row>
@@ -5065,12 +5065,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>財經青紅燈》亞資中心的成敗關鍵</t>
+          <t>股東會速報》今年票價下降正常 星宇：爆發式獲利難</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711494</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711490</t>
         </is>
       </c>
     </row>
@@ -5082,12 +5082,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>運價終止連5漲 美西線暴跌26.5%</t>
+          <t>華爾街日報：中國工程師赴第三國 租用輝達伺服器訓練AI模型</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711488</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074625</t>
         </is>
       </c>
     </row>
@@ -5099,12 +5099,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>金控交棒》林知延接華南金副董 蔡宗翰掌國泰金副董</t>
+          <t>盤勢分析》中東戰火又起 拉回布局</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711585</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711489</t>
         </is>
       </c>
     </row>
@@ -5116,12 +5116,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>飆股幕後》客戶需求旺 外資卡位 勤誠2個月漲1倍</t>
+          <t>股價優於預期 投顧：政經環境不如想像差</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711492</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074735</t>
         </is>
       </c>
     </row>
@@ -5133,12 +5133,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>飆股幕後》業務多元化 營收創高 jpp-KY6月漲36%</t>
+          <t>以色列空襲伊朗黃金飆漲！差一步破歷史新高</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711493</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074166</t>
         </is>
       </c>
     </row>
@@ -5150,12 +5150,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>中東局勢緊張引發賣壓 美股收黑</t>
+          <t>伊朗射彈報復以色列！道瓊狂洩769點 台積電ADR下挫逾2％</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074752</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074753</t>
         </is>
       </c>
     </row>
@@ -5167,12 +5167,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>伊朗射彈報復以色列！道瓊狂洩769點 台積電ADR下挫逾2％</t>
+          <t>沒有醫學系！美調查：大學讀「這12科系」未來收入最高</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074753</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074606</t>
         </is>
       </c>
     </row>
@@ -5184,12 +5184,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>以色列空襲伊朗黃金飆漲！差一步破歷史新高</t>
+          <t>中東局勢緊張引發賣壓 美股收黑</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074166</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074752</t>
         </is>
       </c>
     </row>
@@ -5201,12 +5201,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>沒有醫學系！美調查：大學讀「這12科系」未來收入最高</t>
+          <t>飆股幕後》業務多元化 營收創高 jpp-KY6月漲36%</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074606</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711493</t>
         </is>
       </c>
     </row>
@@ -5218,12 +5218,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>股價優於預期 投顧：政經環境不如想像差</t>
+          <t>飆股幕後》客戶需求旺 外資卡位 勤誠2個月漲1倍</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074735</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711492</t>
         </is>
       </c>
     </row>
@@ -5235,12 +5235,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>我對外資產、負債雙創高 成全球第6大淨債權國</t>
+          <t>運價終止連5漲 美西線暴跌26.5%</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711583</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711488</t>
         </is>
       </c>
     </row>
@@ -5252,12 +5252,590 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>美日聯手抗中！川普拍板新日鐵收購美鋼</t>
+          <t>財經青紅燈》亞資中心的成敗關鍵</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075378</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711494</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>印航空難飛行員最後遺言曝光 沮喪地「求救！」</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075892</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>路透：美中倫敦談判留懸念 中國仍暫停軍用稀土出口美國</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075777</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>日媒曝比亞迪暴跌背後關鍵字是「內捲」 汽車業精疲力竭</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075755</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>中國「這類股」飆漲60％ DeepSeek科技股靠邊站</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075839</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>報復華府收緊AI晶片出口 北京拖延新思科技1兆元併購案</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075864</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>台積電晶圓代工市佔升至67.6％ 擴大全球領先</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075711</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>川普擬將旅行禁令擴大至36個國家</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075901</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>申請新青安被勸退？公股銀行提醒審慎評估財務能力</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076046</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>尋找中國以外稀土供應 歐洲汽車大廠疾呼：價格不是問題</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076006</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>全球最危險國家第1名令人驚訝 最安全前2名是冰島、新加坡</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076030</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>傳三星2原因恐被迫與中廠合作 外媒揭巨大風險</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076058</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>風電供應鏈廠商：3-1、3-2迫在眉睫 籲政府支持降低成本</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076084</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>離岸風電陷亂流 3-1期、3-2期風場進度雪上加霜</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076090</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>印航空難逾279死 印度徹查波音787 不排除「全面停飛」</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075657</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>我金融三業對中曝險降至8769億 創有統計最低</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075979</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>中東戰事再起 元大航太防衛科技ETF今年漲幅逾三成</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075650</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>大專畢業生求職》當黑手vs.端餐盤 薪情差4成</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711637</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>路透：台灣將華為和中芯國際列入出口管制名單</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075599</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>華為5奈米晶片今年難商業化 外媒曝被這技術掐住</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076093</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>供應鏈韌性峰會 美智庫建議G7改T7</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711634</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>卡位環保氣體 重電大廠新戰場</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711644</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>台電加速減碳 變電所GIS汰換環保氣體</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711643</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>大專畢業生求職》逾5成離鄉背井 嘉義、基隆外漂最多</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711638</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>缺工與躺平並存？20萬大畢生不願找頭路</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711636</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>中油：本週汽油價格不調整、柴油調漲0.3元</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075624</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>跨國智庫齊聚台灣DSET 分享AI治理</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711635</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>星展銀行（台灣）舉辦「星展新加坡永續嘉年華」 落實「不塑飲水」、「循環餐具」推動綠色生活新理念</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075461</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>超微AI大會於美舊金山盛大舉行 陸行之列11個關注重點</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075496</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>波音下調未來20年飛機需求預測</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075510</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>《守護我們的星球》！ 矽品精密觀影日發起永續聯名簽署行動</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075534</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>亞馬遜計畫在澳洲投資3835億元興建數據中心</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075554</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>迎暑假旺季遊戲股火力全開 宇峻、傳奇等新遊戲登場</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075561</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>伊朗嗆封鎖荷莫茲海峽 全球能源市場剉咧等</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075373</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>中國消費者被矇了！4張輝達顯示卡送維修 3張是假貨、每張約4萬元</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076098</t>
         </is>
       </c>
     </row>
